--- a/documentatie/Product backlog project 4.xlsx
+++ b/documentatie/Product backlog project 4.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,6 +603,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="66.6640625" customWidth="1"/>
     <col min="3" max="6" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">

--- a/documentatie/Product backlog project 4.xlsx
+++ b/documentatie/Product backlog project 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>Acceptance criteria</t>
-  </si>
-  <si>
     <t>SPRINT BACKLOG</t>
   </si>
   <si>
@@ -93,6 +90,33 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Create a database</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t>M As a user, I want to see a bar chart of the 5 neighborhoods with the biggest amount of bike containers, so I can see wich neighborhoods have te most bike containers.</t>
+  </si>
+  <si>
+    <t>As a developer, I want a datbase localy so I can easily retrieve data and use it in the app</t>
+  </si>
+  <si>
+    <t>&gt;Zoek uit hoe je een database kan gebruiken in een android app.                                                                              &gt;maak code dat ervoor zorgt dat de data uit de excel bestanden gehaald kan worden.                                   &gt;maak code dat ervoor zorgt dat de data in een database kan worden gezet.                                                                      &gt;Voer de parser uit.</t>
+  </si>
+  <si>
+    <t>DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;de databse heeft correcte data                          </t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt;De bar chart geeft de correcte data weer</t>
   </si>
 </sst>
 </file>
@@ -594,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,12 +665,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
@@ -655,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -669,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="6"/>
@@ -683,10 +709,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="6"/>
@@ -697,10 +723,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -711,10 +737,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="6"/>
@@ -725,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="6"/>
@@ -739,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="6"/>
@@ -752,9 +778,15 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
@@ -887,22 +919,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="1"/>
@@ -927,24 +959,48 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17">
+        <v>12</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -967,21 +1023,21 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="53.5546875" customWidth="1"/>
     <col min="6" max="6" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="1"/>
@@ -1006,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1062,7 +1118,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1134,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="1"/>
@@ -1103,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">

--- a/documentatie/Product backlog project 4.xlsx
+++ b/documentatie/Product backlog project 4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joostdw1\Documents\GitHub\Project_4\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timo\Documents\GitHub\Project_4\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,19 +104,23 @@
     <t>As a developer, I want a datbase localy so I can easily retrieve data and use it in the app</t>
   </si>
   <si>
-    <t>&gt;Zoek uit hoe je een database kan gebruiken in een android app.                                                                              &gt;maak code dat ervoor zorgt dat de data uit de excel bestanden gehaald kan worden.                                   &gt;maak code dat ervoor zorgt dat de data in een database kan worden gezet.                                                                      &gt;Voer de parser uit.</t>
-  </si>
-  <si>
     <t>DoD</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;de databse heeft correcte data                          </t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt;De bar chart geeft de correcte data weer</t>
+    <t>&gt;The bar chart shows the correct data.                  &gt;The bar chart has an acceptable minimum and maximum, relative to the values of the bar.           &gt;There is a legend, that gives information about the bars.                                                         &gt;Both the x-axis and y-axis have a name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;The data is correctly converted into values usefull for the graphs.                                        &gt;The database should be designed in a way, that it can be used by different accounts.                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;Create a grid.
+&gt;Determine what the difference in values should be for a graph where you can read information from.
+&gt;Create axis withnames and values at crossing point.
+&gt;Create a dynamic legend.
+</t>
+  </si>
+  <si>
+    <t>&gt;Find out how to use a database for an android app.                                                                              &gt;Develop a program that is able to get information out of a excel file and places it into a database.                                                                                                        &gt;Run the created parcer.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -919,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -979,7 +983,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>27</v>
@@ -1062,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">

--- a/documentatie/Product backlog project 4.xlsx
+++ b/documentatie/Product backlog project 4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timo\Documents\GitHub\Project_4\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Project\Project 4 App\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -98,29 +98,62 @@
     <t>doing</t>
   </si>
   <si>
-    <t>M As a user, I want to see a bar chart of the 5 neighborhoods with the biggest amount of bike containers, so I can see wich neighborhoods have te most bike containers.</t>
-  </si>
-  <si>
     <t>As a developer, I want a datbase localy so I can easily retrieve data and use it in the app</t>
   </si>
   <si>
-    <t>DoD</t>
-  </si>
-  <si>
-    <t>&gt;The bar chart shows the correct data.                  &gt;The bar chart has an acceptable minimum and maximum, relative to the values of the bar.           &gt;There is a legend, that gives information about the bars.                                                         &gt;Both the x-axis and y-axis have a name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;The data is correctly converted into values usefull for the graphs.                                        &gt;The database should be designed in a way, that it can be used by different accounts.                   </t>
+    <t>&gt;Find out how to use a database for an android app.                                                                              &gt;Develop a program that is able to get information out of a excel file and places it into a database.                                                                                                        &gt;Run the created parcer.</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a bar chart of the 5 neighborhoods with the biggest amount of bike containers, so I can see wich neighborhoods have te most bike containers.</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a line chart of the amount of stolen bicycles per month, so I can see wich month has te most stolen bicycles.</t>
+  </si>
+  <si>
+    <t>As a user, I want to see the amount of stolen bicycles and amount of installed bike containers per month given a specific neighborhood through a grouped bar chart. The neighborhood should be selected by the user</t>
+  </si>
+  <si>
+    <t>As I user, I want see two pie charts of the distribution of most stolen bike brands and colors, so I can see wich brands and/or colors are most frequently</t>
+  </si>
+  <si>
+    <t>&gt;The bar chart shows the input data correct.                  &gt;The bar chart has an acceptable minimum and maximum, relative to the values of the bar. (At least 75% of the horizontal axis is used with the line chart and at least 50% of the vertical axis is used with the bar chart)                                   &gt;There is a legend, that gives information about the bars.                                                         &gt;Both the x-axis and y-axis have a name.</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;Create a grid.
 &gt;Determine what the difference in values should be for a graph where you can read information from.
-&gt;Create axis withnames and values at crossing point.
+&gt;Create axis with names and values at crossing point.
 &gt;Create a dynamic legend.
 </t>
   </si>
   <si>
-    <t>&gt;Find out how to use a database for an android app.                                                                              &gt;Develop a program that is able to get information out of a excel file and places it into a database.                                                                                                        &gt;Run the created parcer.</t>
+    <t xml:space="preserve">&gt;The data is correctly converted into values usefull for the graphs.                                        &gt;The database is designed in a way, that it can be used by different accounts.                   </t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>&gt;Create code that retrieves data from the databases.                &gt;Create a filter checklist in the app where the user can select the data that he want to see in a selected chart type.               &gt;Generate a line chart.</t>
+  </si>
+  <si>
+    <t>&gt;The line chart shows the input data correct.                  &gt;The line chart has an acceptable minimum and maximum, relative to the values of the line. (At least 75% of the horizontal axis is used with the line chart and at least 50% of the vertical axis is used with the line chart)                                   &gt;There is a legend, that gives information about the lines.                                                         &gt;Both the x-axis and y-axis have a name.</t>
+  </si>
+  <si>
+    <t>&gt;Create code that retrieves data from the databases.                &gt;Create a filter checklist in the app where the user can select the data that he want to see in a selected chart type.               &gt;Generate a bar chart.</t>
+  </si>
+  <si>
+    <t>&gt;Create code that retrieves data from the databases.                &gt;Create a filter checklist in the app where the user can select the data that he want to see in a selected chart type.               &gt;Generate a pie chart.</t>
+  </si>
+  <si>
+    <t>&gt;Find out how to get the gps location of the mobile.                &gt;Ask for permission for gps, gps has to be on.                       &gt;Save the location(street/city/coordinates).</t>
+  </si>
+  <si>
+    <t>acceptance criteria</t>
+  </si>
+  <si>
+    <t>&gt;The app saves the correct location.                    &gt;The app checks if the gps is on.                         &gt;The app is capable of writing the note without explicitly opening the note app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only mobile version: As a user I want to save the current location of my bike in the note app, so I don't forget where my bike is. </t>
   </si>
 </sst>
 </file>
@@ -140,21 +173,25 @@
       <sz val="20"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -272,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -336,10 +373,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -433,6 +474,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -622,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,10 +710,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -677,7 +752,9 @@
       <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,7 +768,9 @@
         <v>19</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
@@ -705,7 +784,9 @@
         <v>19</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -719,7 +800,9 @@
         <v>19</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
@@ -733,7 +816,9 @@
         <v>19</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="52.8" x14ac:dyDescent="0.3">
@@ -788,10 +873,12 @@
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,7 +1011,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,10 +1024,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -963,15 +1050,15 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
@@ -979,11 +1066,11 @@
       <c r="D3" s="17">
         <v>12</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>28</v>
+      <c r="E3" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -991,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>19</v>
@@ -1000,10 +1087,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1024,26 +1111,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.5546875" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1066,48 +1153,111 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1137,10 +1287,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1163,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
